--- a/Racecard_20250223_8.xlsx
+++ b/Racecard_20250223_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="366">
   <si>
     <t>日期</t>
   </si>
@@ -124,6 +124,9 @@
     <t>上次班次</t>
   </si>
   <si>
+    <t>上次路程</t>
+  </si>
+  <si>
     <t>上次名次</t>
   </si>
   <si>
@@ -199,6 +202,15 @@
     <t>前次總場次</t>
   </si>
   <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
     <t>前次名次</t>
   </si>
   <si>
@@ -286,13 +298,19 @@
     <t>前次賽事</t>
   </si>
   <si>
-    <t>2次調整後完成時間</t>
+    <t>2次調整後平均時間</t>
   </si>
   <si>
     <t>上次調整後完成秒速</t>
   </si>
   <si>
-    <t>2次調整後完成秒速</t>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
   </si>
   <si>
     <t>ST</t>
@@ -830,12 +848,18 @@
     <t>布文</t>
   </si>
   <si>
+    <t>董明朗</t>
+  </si>
+  <si>
     <t>周俊樂</t>
   </si>
   <si>
     <t>田泰安</t>
   </si>
   <si>
+    <t>梁家俊</t>
+  </si>
+  <si>
     <t>班德禮</t>
   </si>
   <si>
@@ -857,6 +881,12 @@
     <t>58.34</t>
   </si>
   <si>
+    <t>1:09.56</t>
+  </si>
+  <si>
+    <t>1:09.23</t>
+  </si>
+  <si>
     <t>58.27</t>
   </si>
   <si>
@@ -887,9 +917,18 @@
     <t>1:22.39</t>
   </si>
   <si>
+    <t>1:10.59</t>
+  </si>
+  <si>
     <t>1:21.66</t>
   </si>
   <si>
+    <t>1:09.90</t>
+  </si>
+  <si>
+    <t>1:09.72</t>
+  </si>
+  <si>
     <t>1:22.12</t>
   </si>
   <si>
@@ -905,9 +944,18 @@
     <t>1:22.25</t>
   </si>
   <si>
+    <t>1:23.63</t>
+  </si>
+  <si>
     <t>1:22.56</t>
   </si>
   <si>
+    <t>1:22.44</t>
+  </si>
+  <si>
+    <t>1:22.38</t>
+  </si>
+  <si>
     <t>1:21.88</t>
   </si>
   <si>
@@ -920,7 +968,19 @@
     <t>1:21.44</t>
   </si>
   <si>
-    <t>梁家俊</t>
+    <t>2025/01/05</t>
+  </si>
+  <si>
+    <t>2024/12/29</t>
+  </si>
+  <si>
+    <t>2024/02/04</t>
+  </si>
+  <si>
+    <t>2025/01/12</t>
+  </si>
+  <si>
+    <t>2024/11/03</t>
   </si>
   <si>
     <t>湯普新</t>
@@ -1004,61 +1064,70 @@
     <t>1:22.18</t>
   </si>
   <si>
-    <t>霍宏聲(12)53.0</t>
-  </si>
-  <si>
-    <t>蔡明紹(1)16.0</t>
-  </si>
-  <si>
-    <t>希威森(9)20.0</t>
-  </si>
-  <si>
-    <t>布文(3)14.0</t>
-  </si>
-  <si>
-    <t>周俊樂(11)171.0</t>
-  </si>
-  <si>
-    <t>田泰安(2)4.1</t>
-  </si>
-  <si>
-    <t>蔡明紹(6)125.0</t>
-  </si>
-  <si>
-    <t>班德禮(11)15.0</t>
-  </si>
-  <si>
-    <t>潘明輝(3)10.0</t>
-  </si>
-  <si>
-    <t>潘頓(1)5.0</t>
-  </si>
-  <si>
-    <t>梁家俊(14)64.0</t>
-  </si>
-  <si>
-    <t>霍宏聲(12)19.0</t>
-  </si>
-  <si>
-    <t>湯普新(2)17.0</t>
-  </si>
-  <si>
-    <t>布文(12)12.0</t>
-  </si>
-  <si>
-    <t>艾道拿(1)3.7</t>
-  </si>
-  <si>
-    <t>蔡明紹(8)130.0</t>
-  </si>
-  <si>
-    <t>霍宏聲(1)18.0</t>
-  </si>
-  <si>
-    <t>希威森(12)10.0</t>
-  </si>
-  <si>
-    <t>班德禮(6)4.5</t>
+    <t>[09/02] 1400 霍宏聲 (12) 53.0</t>
+  </si>
+  <si>
+    <t>[19/01] 1400 蔡明紹 (1) 16.0</t>
+  </si>
+  <si>
+    <t>[09/02] 1400 希威森 (9) 20.0</t>
+  </si>
+  <si>
+    <t>[25/02] 1400 布文 (3) 14.0</t>
+  </si>
+  <si>
+    <t>##[19/01] 1200 董明朗 (12) 145.0</t>
+  </si>
+  <si>
+    <t>[09/02] 1400 周俊樂 (11) 171.0</t>
+  </si>
+  <si>
+    <t>[09/02] 1400 田泰安 (2) 4.1</t>
+  </si>
+  <si>
+    <t>##[19/01] 1200 梁家俊 (4) 12.0</t>
+  </si>
+  <si>
+    <t>##[31/01] 1200 希威森 (8) 150.0</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 蔡明紹 (6) 125.0</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 班德禮 (11) 15.0</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 潘明輝 (3) 10.0</t>
+  </si>
+  <si>
+    <t>[19/01] 1400 潘頓 (1) 5.0</t>
+  </si>
+  <si>
+    <t>[05/01] 1400 梁家俊 (14) 64.0</t>
+  </si>
+  <si>
+    <t>[05/01] 1400 霍宏聲 (12) 19.0</t>
+  </si>
+  <si>
+    <t>[29/12] 1400 湯普新 (2) 17.0</t>
+  </si>
+  <si>
+    <t>[04/02] 1400 布文 (12) 12.0</t>
+  </si>
+  <si>
+    <t>[12/01] 1400 艾道拿 (1) 3.7</t>
+  </si>
+  <si>
+    <t>[05/01] 1400 蔡明紹 (8) 130.0</t>
+  </si>
+  <si>
+    <t>[29/12] 1400 霍宏聲 (1) 18.0</t>
+  </si>
+  <si>
+    <t>[19/01] 1400 希威森 (12) 10.0</t>
+  </si>
+  <si>
+    <t>[03/11] 1400 班德禮 (6) 4.5</t>
   </si>
   <si>
     <t>1:23.54</t>
@@ -1432,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO15"/>
+  <dimension ref="A1:CU15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,25 +1787,43 @@
       <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:99">
       <c r="A2" s="2">
         <v>45711</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>1400</v>
@@ -1745,87 +1832,87 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L2">
         <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O2">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="R2">
         <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AA2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AC2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AD2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AE2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AG2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>111</v>
+        <v>256</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:99">
       <c r="A3" s="2">
         <v>45711</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>1400</v>
@@ -1834,240 +1921,258 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L3">
         <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O3">
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="R3">
         <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="W3">
         <v>6</v>
       </c>
       <c r="Y3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AA3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AD3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AE3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AF3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH3">
         <v>2024417</v>
       </c>
       <c r="AI3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AJ3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK3">
+        <v>1400</v>
+      </c>
+      <c r="AL3">
         <v>12</v>
       </c>
-      <c r="AL3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN3">
         <v>53</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>135</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-6</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>4</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>8</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>13.11</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>35.22</v>
       </c>
-      <c r="AT3" t="s">
-        <v>267</v>
-      </c>
       <c r="AU3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AY3">
+        <v>275</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ3">
         <v>13.71</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>22.15</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>22.63</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>24.36</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>46.99</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>0.05399999999999999</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>47.044</v>
       </c>
-      <c r="BH3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BI3">
+      <c r="BI3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BJ3">
         <v>2024327</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM3">
+        <v>1400</v>
+      </c>
+      <c r="BN3">
         <v>14</v>
       </c>
-      <c r="BK3" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL3">
+      <c r="BO3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BP3">
         <v>64</v>
       </c>
-      <c r="BM3">
+      <c r="BQ3">
         <v>135</v>
       </c>
-      <c r="BN3">
+      <c r="BR3">
         <v>-6</v>
       </c>
-      <c r="BO3">
+      <c r="BS3">
         <v>9</v>
       </c>
-      <c r="BP3">
+      <c r="BT3">
         <v>3</v>
       </c>
-      <c r="BQ3">
+      <c r="BU3">
         <v>13.52</v>
       </c>
-      <c r="BR3">
+      <c r="BV3">
         <v>36.19</v>
       </c>
-      <c r="BS3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>301</v>
-      </c>
       <c r="BW3" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX3">
+        <v>315</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>321</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>326</v>
+      </c>
+      <c r="CB3">
         <v>13.72</v>
       </c>
-      <c r="BY3">
+      <c r="CC3">
         <v>23.03</v>
       </c>
-      <c r="BZ3">
+      <c r="CD3">
         <v>23.85</v>
       </c>
-      <c r="CA3">
+      <c r="CE3">
         <v>23.62</v>
       </c>
-      <c r="CD3">
+      <c r="CH3">
         <v>47.47</v>
       </c>
-      <c r="CE3">
+      <c r="CI3">
         <v>-0.036</v>
       </c>
-      <c r="CF3">
+      <c r="CJ3">
         <v>47.434</v>
       </c>
-      <c r="CG3" t="s">
-        <v>313</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>320</v>
-      </c>
       <c r="CK3" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="CL3" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="CM3" t="s">
-        <v>339</v>
-      </c>
-      <c r="CN3">
+        <v>298</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>340</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>333</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>353</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>362</v>
+      </c>
+      <c r="CR3">
         <v>82.90000000000001</v>
       </c>
-      <c r="CO3">
+      <c r="CS3">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="CT3">
         <v>83.53999999999999</v>
       </c>
+      <c r="CU3">
+        <v>82.90000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:99">
       <c r="A4" s="2">
         <v>45711</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>1400</v>
@@ -2076,243 +2181,261 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L4">
         <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R4">
         <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="U4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
       <c r="Y4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AA4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AC4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AD4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AE4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AF4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AG4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AH4">
         <v>2024362</v>
       </c>
       <c r="AI4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AJ4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK4">
+        <v>1400</v>
+      </c>
+      <c r="AL4">
         <v>1</v>
       </c>
-      <c r="AL4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM4">
+      <c r="AM4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN4">
         <v>16</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>120</v>
-      </c>
-      <c r="AO4">
-        <v>6</v>
       </c>
       <c r="AP4">
         <v>6</v>
       </c>
       <c r="AQ4">
+        <v>6</v>
+      </c>
+      <c r="AR4">
         <v>-5</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>13.56</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>35.37</v>
       </c>
-      <c r="AT4" t="s">
-        <v>268</v>
-      </c>
       <c r="AU4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY4">
+        <v>276</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ4">
         <v>13.8</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>22.09</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>22.93</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>22.65</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>45.58</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>0</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>45.58</v>
       </c>
-      <c r="BH4" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI4">
+      <c r="BI4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ4">
         <v>2024327</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM4">
+        <v>1400</v>
+      </c>
+      <c r="BN4">
         <v>12</v>
       </c>
-      <c r="BK4" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL4">
+      <c r="BO4" t="s">
+        <v>264</v>
+      </c>
+      <c r="BP4">
         <v>19</v>
       </c>
-      <c r="BM4">
+      <c r="BQ4">
         <v>121</v>
       </c>
-      <c r="BN4">
+      <c r="BR4">
         <v>5</v>
       </c>
-      <c r="BO4">
+      <c r="BS4">
         <v>10</v>
       </c>
-      <c r="BP4">
+      <c r="BT4">
         <v>-9</v>
       </c>
-      <c r="BQ4">
+      <c r="BU4">
         <v>13.52</v>
       </c>
-      <c r="BR4">
+      <c r="BV4">
         <v>36.19</v>
       </c>
-      <c r="BS4" t="s">
-        <v>295</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>301</v>
-      </c>
       <c r="BW4" t="s">
-        <v>307</v>
-      </c>
-      <c r="BX4">
+        <v>315</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>321</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>327</v>
+      </c>
+      <c r="CB4">
         <v>14.2</v>
       </c>
-      <c r="BY4">
+      <c r="CC4">
         <v>22.99</v>
       </c>
-      <c r="BZ4">
+      <c r="CD4">
         <v>23.77</v>
       </c>
-      <c r="CA4">
+      <c r="CE4">
         <v>22.08</v>
       </c>
-      <c r="CD4">
+      <c r="CH4">
         <v>45.85</v>
       </c>
-      <c r="CE4">
+      <c r="CI4">
         <v>-0.08699999999999998</v>
       </c>
-      <c r="CF4">
+      <c r="CJ4">
         <v>45.763</v>
       </c>
-      <c r="CG4" t="s">
-        <v>314</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>113</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>274</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>321</v>
-      </c>
       <c r="CK4" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="CL4" t="s">
-        <v>331</v>
+        <v>119</v>
       </c>
       <c r="CM4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CN4">
+        <v>284</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>341</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>334</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR4">
         <v>81.47</v>
       </c>
-      <c r="CO4">
+      <c r="CS4">
+        <v>82.95</v>
+      </c>
+      <c r="CT4">
         <v>82.21000000000001</v>
       </c>
+      <c r="CU4">
+        <v>81.47</v>
+      </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:99">
       <c r="A5" s="2">
         <v>45711</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>1400</v>
@@ -2321,240 +2444,258 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L5">
         <v>124</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O5">
         <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R5">
         <v>68</v>
       </c>
       <c r="S5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="U5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AA5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AD5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AE5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AF5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AH5">
         <v>2024413</v>
       </c>
       <c r="AI5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AJ5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK5">
+        <v>1400</v>
+      </c>
+      <c r="AL5">
         <v>9</v>
       </c>
-      <c r="AL5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN5">
         <v>20</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>129</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-5</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>12</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-1</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>13.53</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>35.51</v>
       </c>
-      <c r="AT5" t="s">
-        <v>269</v>
-      </c>
       <c r="AU5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AY5">
+        <v>277</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ5">
         <v>14.41</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>22.54</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>23.1</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>22.16</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>45.26</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>-0.093</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>45.16699999999999</v>
       </c>
-      <c r="BH5" t="s">
-        <v>282</v>
-      </c>
-      <c r="BI5">
+      <c r="BI5" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ5">
         <v>2024306</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM5">
+        <v>1400</v>
+      </c>
+      <c r="BN5">
         <v>2</v>
       </c>
-      <c r="BK5" t="s">
-        <v>293</v>
-      </c>
-      <c r="BL5">
+      <c r="BO5" t="s">
+        <v>313</v>
+      </c>
+      <c r="BP5">
         <v>17</v>
       </c>
-      <c r="BM5">
+      <c r="BQ5">
         <v>124</v>
       </c>
-      <c r="BN5">
+      <c r="BR5">
         <v>0</v>
       </c>
-      <c r="BO5">
+      <c r="BS5">
         <v>3</v>
       </c>
-      <c r="BP5">
+      <c r="BT5">
         <v>8</v>
       </c>
-      <c r="BQ5">
+      <c r="BU5">
         <v>13.67</v>
       </c>
-      <c r="BR5">
+      <c r="BV5">
         <v>36.12</v>
       </c>
-      <c r="BS5" t="s">
-        <v>296</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>302</v>
-      </c>
       <c r="BW5" t="s">
-        <v>308</v>
-      </c>
-      <c r="BX5">
+        <v>316</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>328</v>
+      </c>
+      <c r="CB5">
         <v>13.71</v>
       </c>
-      <c r="BY5">
+      <c r="CC5">
         <v>22.73</v>
       </c>
-      <c r="BZ5">
+      <c r="CD5">
         <v>23.17</v>
       </c>
-      <c r="CA5">
+      <c r="CE5">
         <v>22.62</v>
       </c>
-      <c r="CD5">
+      <c r="CH5">
         <v>45.79</v>
       </c>
-      <c r="CE5">
+      <c r="CI5">
         <v>0.144</v>
       </c>
-      <c r="CF5">
+      <c r="CJ5">
         <v>45.934</v>
       </c>
-      <c r="CG5" t="s">
-        <v>312</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>114</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>322</v>
-      </c>
       <c r="CK5" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="CL5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>342</v>
+      </c>
+      <c r="CO5" t="s">
         <v>332</v>
       </c>
-      <c r="CM5" t="s">
-        <v>286</v>
-      </c>
-      <c r="CN5">
+      <c r="CP5" t="s">
+        <v>355</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>299</v>
+      </c>
+      <c r="CR5">
         <v>82.12</v>
       </c>
-      <c r="CO5">
+      <c r="CS5">
+        <v>82.37</v>
+      </c>
+      <c r="CT5">
         <v>82.25</v>
       </c>
+      <c r="CU5">
+        <v>82.12</v>
+      </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:99">
       <c r="A6" s="2">
         <v>45711</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <v>1400</v>
@@ -2563,243 +2704,261 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L6">
         <v>121</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O6">
         <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="R6">
         <v>65</v>
       </c>
       <c r="S6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="U6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AA6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AC6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AD6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AE6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AF6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AG6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AH6">
         <v>2023451</v>
       </c>
       <c r="AI6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AK6">
+        <v>1400</v>
+      </c>
+      <c r="AL6">
         <v>3</v>
       </c>
-      <c r="AL6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM6">
+      <c r="AM6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN6">
         <v>14</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>127</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-6</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>10</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>-3</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>13.24</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>34.51</v>
       </c>
-      <c r="AT6" t="s">
-        <v>270</v>
-      </c>
       <c r="AU6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY6">
+        <v>278</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ6">
         <v>14.08</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>21.79</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>23.07</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>23.45</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>46.52</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>-0.144</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>46.376</v>
       </c>
-      <c r="BH6" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI6">
+      <c r="BI6" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ6">
         <v>2023396</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM6">
+        <v>1400</v>
+      </c>
+      <c r="BN6">
         <v>12</v>
       </c>
-      <c r="BK6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BL6">
+      <c r="BO6" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP6">
         <v>12</v>
       </c>
-      <c r="BM6">
+      <c r="BQ6">
         <v>127</v>
       </c>
-      <c r="BN6">
+      <c r="BR6">
         <v>-6</v>
       </c>
-      <c r="BO6">
+      <c r="BS6">
         <v>8</v>
       </c>
-      <c r="BP6">
+      <c r="BT6">
         <v>-1</v>
       </c>
-      <c r="BQ6">
+      <c r="BU6">
         <v>13.59</v>
       </c>
-      <c r="BR6">
+      <c r="BV6">
         <v>35.99</v>
       </c>
-      <c r="BS6" t="s">
-        <v>297</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>303</v>
-      </c>
       <c r="BW6" t="s">
-        <v>309</v>
-      </c>
-      <c r="BX6">
+        <v>317</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>323</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB6">
         <v>14.35</v>
       </c>
-      <c r="BY6">
+      <c r="CC6">
         <v>22.72</v>
       </c>
-      <c r="BZ6">
+      <c r="CD6">
         <v>23.13</v>
       </c>
-      <c r="CA6">
+      <c r="CE6">
         <v>23.42</v>
       </c>
-      <c r="CD6">
+      <c r="CH6">
         <v>46.55</v>
       </c>
-      <c r="CE6">
+      <c r="CI6">
         <v>-0.108</v>
       </c>
-      <c r="CF6">
+      <c r="CJ6">
         <v>46.442</v>
       </c>
-      <c r="CG6" t="s">
-        <v>315</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>115</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>323</v>
-      </c>
       <c r="CK6" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="CL6" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="CM6" t="s">
-        <v>340</v>
-      </c>
-      <c r="CN6">
+        <v>299</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>356</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>363</v>
+      </c>
+      <c r="CR6">
         <v>82.25</v>
       </c>
-      <c r="CO6">
+      <c r="CS6">
+        <v>83.51000000000001</v>
+      </c>
+      <c r="CT6">
         <v>82.88</v>
       </c>
+      <c r="CU6">
+        <v>82.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:99">
       <c r="A7" s="2">
         <v>45711</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>1400</v>
@@ -2808,87 +2967,171 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L7">
         <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O7">
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="R7">
         <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="U7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AA7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AB7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AD7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AE7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AF7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AG7" t="s">
-        <v>250</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>116</v>
+        <v>256</v>
+      </c>
+      <c r="AH7">
+        <v>2024366</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK7">
+        <v>1200</v>
+      </c>
+      <c r="AL7">
+        <v>12</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN7">
+        <v>145</v>
+      </c>
+      <c r="AO7">
+        <v>123</v>
+      </c>
+      <c r="AP7">
+        <v>-3</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>8</v>
+      </c>
+      <c r="AS7">
+        <v>24.43</v>
+      </c>
+      <c r="AT7">
+        <v>47.15</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ7">
+        <v>25.11</v>
+      </c>
+      <c r="BA7">
+        <v>22.6</v>
+      </c>
+      <c r="BB7">
+        <v>22.88</v>
+      </c>
+      <c r="BF7">
+        <v>45.48</v>
+      </c>
+      <c r="BG7">
+        <v>0.09899999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>45.57899999999999</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>300</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>344</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR7">
+        <v>83.63</v>
+      </c>
+      <c r="CT7">
+        <v>83.63</v>
+      </c>
+      <c r="CU7">
+        <v>83.63</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:99">
       <c r="A8" s="2">
         <v>45711</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G8">
         <v>1400</v>
@@ -2897,174 +3140,180 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L8">
         <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O8">
         <v>14</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="R8">
         <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="W8">
         <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AA8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AC8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AD8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AE8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AF8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH8">
         <v>2024413</v>
       </c>
       <c r="AI8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AJ8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK8">
+        <v>1400</v>
+      </c>
+      <c r="AL8">
         <v>11</v>
       </c>
-      <c r="AL8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM8">
+      <c r="AM8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN8">
         <v>171</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>121</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>-1</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>4</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>10</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>13.53</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>35.51</v>
       </c>
-      <c r="AT8" t="s">
-        <v>269</v>
-      </c>
       <c r="AU8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY8">
+        <v>277</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ8">
         <v>14.05</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>22.46</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>23.22</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>22.66</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>45.88</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>0.165</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>46.045</v>
       </c>
-      <c r="BH8" t="s">
-        <v>287</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>287</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>324</v>
+      <c r="BI8" t="s">
+        <v>301</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>123</v>
       </c>
       <c r="CM8" t="s">
-        <v>287</v>
-      </c>
-      <c r="CN8">
+        <v>301</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>345</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>301</v>
+      </c>
+      <c r="CR8">
         <v>82.56</v>
       </c>
-      <c r="CO8">
+      <c r="CT8">
         <v>82.56</v>
       </c>
+      <c r="CU8">
+        <v>82.56</v>
+      </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:99">
       <c r="A9" s="2">
         <v>45711</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G9">
         <v>1400</v>
@@ -3073,240 +3322,258 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L9">
         <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="R9">
         <v>63</v>
       </c>
       <c r="S9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="U9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
       <c r="Y9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AA9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AB9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AD9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AE9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AF9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AH9">
         <v>2024413</v>
       </c>
       <c r="AI9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AJ9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK9">
+        <v>1400</v>
+      </c>
+      <c r="AL9">
         <v>2</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN9">
+        <v>4.1</v>
+      </c>
+      <c r="AO9">
+        <v>121</v>
+      </c>
+      <c r="AP9">
+        <v>-2</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
+      <c r="AR9">
+        <v>-5</v>
+      </c>
+      <c r="AS9">
+        <v>13.53</v>
+      </c>
+      <c r="AT9">
+        <v>35.51</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AZ9">
+        <v>13.57</v>
+      </c>
+      <c r="BA9">
+        <v>22.06</v>
+      </c>
+      <c r="BB9">
+        <v>23.3</v>
+      </c>
+      <c r="BC9">
+        <v>22.73</v>
+      </c>
+      <c r="BF9">
+        <v>46.03</v>
+      </c>
+      <c r="BG9">
+        <v>-0.12</v>
+      </c>
+      <c r="BH9">
+        <v>45.91</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ9">
+        <v>2024341</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>311</v>
+      </c>
+      <c r="BL9" t="s">
         <v>263</v>
       </c>
-      <c r="AM9">
-        <v>4.1</v>
-      </c>
-      <c r="AN9">
-        <v>121</v>
-      </c>
-      <c r="AO9">
-        <v>-2</v>
-      </c>
-      <c r="AP9">
-        <v>10</v>
-      </c>
-      <c r="AQ9">
-        <v>-5</v>
-      </c>
-      <c r="AR9">
-        <v>13.53</v>
-      </c>
-      <c r="AS9">
-        <v>35.51</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AY9">
-        <v>13.57</v>
-      </c>
-      <c r="AZ9">
-        <v>22.06</v>
-      </c>
-      <c r="BA9">
-        <v>23.3</v>
-      </c>
-      <c r="BB9">
-        <v>22.73</v>
-      </c>
-      <c r="BE9">
-        <v>46.03</v>
-      </c>
-      <c r="BF9">
-        <v>-0.12</v>
-      </c>
-      <c r="BG9">
-        <v>45.91</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI9">
-        <v>2024341</v>
-      </c>
-      <c r="BJ9">
+      <c r="BM9">
+        <v>1400</v>
+      </c>
+      <c r="BN9">
         <v>1</v>
       </c>
-      <c r="BK9" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL9">
+      <c r="BO9" t="s">
+        <v>314</v>
+      </c>
+      <c r="BP9">
         <v>3.7</v>
       </c>
-      <c r="BM9">
+      <c r="BQ9">
         <v>132</v>
       </c>
-      <c r="BN9">
+      <c r="BR9">
         <v>-13</v>
       </c>
-      <c r="BO9">
+      <c r="BS9">
         <v>2</v>
       </c>
-      <c r="BP9">
+      <c r="BT9">
         <v>3</v>
       </c>
-      <c r="BQ9">
+      <c r="BU9">
         <v>13.31</v>
       </c>
-      <c r="BR9">
+      <c r="BV9">
         <v>35.27</v>
       </c>
-      <c r="BS9" t="s">
-        <v>298</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>304</v>
-      </c>
       <c r="BW9" t="s">
-        <v>304</v>
-      </c>
-      <c r="BX9">
+        <v>318</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>324</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>324</v>
+      </c>
+      <c r="CB9">
         <v>13.63</v>
       </c>
-      <c r="BY9">
+      <c r="CC9">
         <v>22.4</v>
       </c>
-      <c r="BZ9">
+      <c r="CD9">
         <v>22.9</v>
       </c>
-      <c r="CA9">
+      <c r="CE9">
         <v>23.05</v>
       </c>
-      <c r="CD9">
+      <c r="CH9">
         <v>45.95</v>
       </c>
-      <c r="CE9">
+      <c r="CI9">
         <v>-0.141</v>
       </c>
-      <c r="CF9">
+      <c r="CJ9">
         <v>45.809</v>
       </c>
-      <c r="CG9" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>325</v>
-      </c>
       <c r="CK9" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="CL9" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="CM9" t="s">
-        <v>290</v>
-      </c>
-      <c r="CN9">
+        <v>283</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>346</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>336</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>357</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>306</v>
+      </c>
+      <c r="CR9">
         <v>81.53999999999999</v>
       </c>
-      <c r="CO9">
+      <c r="CS9">
+        <v>81.84</v>
+      </c>
+      <c r="CT9">
         <v>81.69</v>
       </c>
+      <c r="CU9">
+        <v>81.53999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:99">
       <c r="A10" s="2">
         <v>45711</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G10">
         <v>1400</v>
@@ -3315,87 +3582,171 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L10">
         <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="R10">
         <v>63</v>
       </c>
       <c r="S10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="U10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="W10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AA10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AB10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AC10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AD10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AE10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AF10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AG10" t="s">
-        <v>250</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>119</v>
+        <v>256</v>
+      </c>
+      <c r="AH10">
+        <v>2024366</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK10">
+        <v>1200</v>
+      </c>
+      <c r="AL10">
+        <v>4</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN10">
+        <v>12</v>
+      </c>
+      <c r="AO10">
+        <v>120</v>
+      </c>
+      <c r="AP10">
+        <v>-1</v>
+      </c>
+      <c r="AQ10">
+        <v>13</v>
+      </c>
+      <c r="AR10">
+        <v>-11</v>
+      </c>
+      <c r="AS10">
+        <v>24.43</v>
+      </c>
+      <c r="AT10">
+        <v>47.15</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AZ10">
+        <v>25.43</v>
+      </c>
+      <c r="BA10">
+        <v>22.4</v>
+      </c>
+      <c r="BB10">
+        <v>22.07</v>
+      </c>
+      <c r="BF10">
+        <v>44.47</v>
+      </c>
+      <c r="BG10">
+        <v>-0.213</v>
+      </c>
+      <c r="BH10">
+        <v>44.257</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>302</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>302</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>347</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>302</v>
+      </c>
+      <c r="CR10">
+        <v>82.44</v>
+      </c>
+      <c r="CT10">
+        <v>82.44</v>
+      </c>
+      <c r="CU10">
+        <v>82.44</v>
       </c>
     </row>
-    <row r="11" spans="1:93">
+    <row r="11" spans="1:99">
       <c r="A11" s="2">
         <v>45711</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1400</v>
@@ -3404,87 +3755,171 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L11">
         <v>118</v>
       </c>
       <c r="M11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O11">
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="R11">
         <v>62</v>
       </c>
       <c r="S11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="U11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AA11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AC11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AD11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AE11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AF11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AG11" t="s">
-        <v>250</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>120</v>
+        <v>256</v>
+      </c>
+      <c r="AH11">
+        <v>2024396</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK11">
+        <v>1200</v>
+      </c>
+      <c r="AL11">
+        <v>8</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN11">
+        <v>150</v>
+      </c>
+      <c r="AO11">
+        <v>119</v>
+      </c>
+      <c r="AP11">
+        <v>-1</v>
+      </c>
+      <c r="AQ11">
+        <v>8</v>
+      </c>
+      <c r="AR11">
+        <v>-4</v>
+      </c>
+      <c r="AS11">
+        <v>24.08</v>
+      </c>
+      <c r="AT11">
+        <v>46.47</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ11">
+        <v>24.88</v>
+      </c>
+      <c r="BA11">
+        <v>22.23</v>
+      </c>
+      <c r="BB11">
+        <v>22.61</v>
+      </c>
+      <c r="BF11">
+        <v>44.84</v>
+      </c>
+      <c r="BG11">
+        <v>-0.08699999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>44.753</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>303</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>303</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>348</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>303</v>
+      </c>
+      <c r="CR11">
+        <v>82.38</v>
+      </c>
+      <c r="CT11">
+        <v>82.38</v>
+      </c>
+      <c r="CU11">
+        <v>82.38</v>
       </c>
     </row>
-    <row r="12" spans="1:93">
+    <row r="12" spans="1:99">
       <c r="A12" s="2">
         <v>45711</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G12">
         <v>1400</v>
@@ -3493,243 +3928,261 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L12">
         <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="R12">
         <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="U12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AA12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AC12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AD12" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AE12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AF12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AG12" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH12">
         <v>2024397</v>
       </c>
       <c r="AI12" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AJ12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK12">
+        <v>1400</v>
+      </c>
+      <c r="AL12">
         <v>6</v>
       </c>
-      <c r="AL12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM12">
+      <c r="AM12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN12">
         <v>125</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>123</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>-5</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>12</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>-9</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>13.51</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>35.47</v>
       </c>
-      <c r="AT12" t="s">
-        <v>271</v>
-      </c>
       <c r="AU12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>282</v>
-      </c>
-      <c r="AY12">
+        <v>281</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ12">
         <v>13.51</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>21.96</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>22.8</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>23.85</v>
       </c>
-      <c r="BE12">
+      <c r="BF12">
         <v>46.65</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
         <v>-0.237</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <v>46.413</v>
       </c>
-      <c r="BH12" t="s">
-        <v>288</v>
-      </c>
-      <c r="BI12">
+      <c r="BI12" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ12">
         <v>2024327</v>
       </c>
-      <c r="BJ12">
+      <c r="BK12" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM12">
+        <v>1400</v>
+      </c>
+      <c r="BN12">
         <v>8</v>
       </c>
-      <c r="BK12" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL12">
+      <c r="BO12" t="s">
+        <v>265</v>
+      </c>
+      <c r="BP12">
         <v>130</v>
       </c>
-      <c r="BM12">
+      <c r="BQ12">
         <v>119</v>
       </c>
-      <c r="BN12">
+      <c r="BR12">
         <v>-1</v>
       </c>
-      <c r="BO12">
+      <c r="BS12">
         <v>4</v>
       </c>
-      <c r="BP12">
+      <c r="BT12">
         <v>-1</v>
       </c>
-      <c r="BQ12">
+      <c r="BU12">
         <v>13.52</v>
       </c>
-      <c r="BR12">
+      <c r="BV12">
         <v>36.19</v>
       </c>
-      <c r="BS12" t="s">
-        <v>295</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>301</v>
-      </c>
       <c r="BW12" t="s">
-        <v>310</v>
-      </c>
-      <c r="BX12">
+        <v>315</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>321</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>330</v>
+      </c>
+      <c r="CB12">
         <v>13.52</v>
       </c>
-      <c r="BY12">
+      <c r="CC12">
         <v>22.67</v>
       </c>
-      <c r="BZ12">
+      <c r="CD12">
         <v>24.09</v>
       </c>
-      <c r="CA12">
+      <c r="CE12">
         <v>22.61</v>
       </c>
-      <c r="CD12">
+      <c r="CH12">
         <v>46.7</v>
       </c>
-      <c r="CE12">
+      <c r="CI12">
         <v>-0.033</v>
       </c>
-      <c r="CF12">
+      <c r="CJ12">
         <v>46.667</v>
       </c>
-      <c r="CG12" t="s">
-        <v>317</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>288</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>326</v>
-      </c>
       <c r="CK12" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="CL12" t="s">
-        <v>335</v>
+        <v>127</v>
       </c>
       <c r="CM12" t="s">
-        <v>312</v>
-      </c>
-      <c r="CN12">
+        <v>304</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>337</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>358</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR12">
         <v>81.88</v>
       </c>
-      <c r="CO12">
+      <c r="CS12">
+        <v>82.86</v>
+      </c>
+      <c r="CT12">
         <v>82.37</v>
       </c>
+      <c r="CU12">
+        <v>81.88</v>
+      </c>
     </row>
-    <row r="13" spans="1:93">
+    <row r="13" spans="1:99">
       <c r="A13" s="2">
         <v>45711</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G13">
         <v>1400</v>
@@ -3738,243 +4191,261 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L13">
         <v>118</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O13">
         <v>13</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="R13">
         <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="U13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="W13">
         <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AA13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AC13" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AD13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AE13" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AF13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AG13" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AH13">
         <v>2024397</v>
       </c>
       <c r="AI13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AJ13" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK13">
+        <v>1400</v>
+      </c>
+      <c r="AL13">
         <v>11</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN13">
+        <v>15</v>
+      </c>
+      <c r="AO13">
+        <v>121</v>
+      </c>
+      <c r="AP13">
+        <v>-3</v>
+      </c>
+      <c r="AQ13">
+        <v>8</v>
+      </c>
+      <c r="AR13">
+        <v>5</v>
+      </c>
+      <c r="AS13">
+        <v>13.51</v>
+      </c>
+      <c r="AT13">
+        <v>35.47</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>287</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>296</v>
+      </c>
+      <c r="AZ13">
+        <v>14.11</v>
+      </c>
+      <c r="BA13">
+        <v>22.4</v>
+      </c>
+      <c r="BB13">
+        <v>22.76</v>
+      </c>
+      <c r="BC13">
+        <v>23.13</v>
+      </c>
+      <c r="BF13">
+        <v>45.89</v>
+      </c>
+      <c r="BG13">
+        <v>0.045</v>
+      </c>
+      <c r="BH13">
+        <v>45.935</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ13">
+        <v>2024303</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM13">
+        <v>1400</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13" t="s">
         <v>264</v>
       </c>
-      <c r="AM13">
-        <v>15</v>
-      </c>
-      <c r="AN13">
-        <v>121</v>
-      </c>
-      <c r="AO13">
-        <v>-3</v>
-      </c>
-      <c r="AP13">
-        <v>8</v>
-      </c>
-      <c r="AQ13">
-        <v>5</v>
-      </c>
-      <c r="AR13">
-        <v>13.51</v>
-      </c>
-      <c r="AS13">
-        <v>35.47</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>283</v>
-      </c>
-      <c r="AY13">
-        <v>14.11</v>
-      </c>
-      <c r="AZ13">
-        <v>22.4</v>
-      </c>
-      <c r="BA13">
-        <v>22.76</v>
-      </c>
-      <c r="BB13">
-        <v>23.13</v>
-      </c>
-      <c r="BE13">
-        <v>45.89</v>
-      </c>
-      <c r="BF13">
-        <v>0.045</v>
-      </c>
-      <c r="BG13">
-        <v>45.935</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>289</v>
-      </c>
-      <c r="BI13">
-        <v>2024303</v>
-      </c>
-      <c r="BJ13">
-        <v>1</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL13">
+      <c r="BP13">
         <v>18</v>
       </c>
-      <c r="BM13">
+      <c r="BQ13">
         <v>130</v>
       </c>
-      <c r="BN13">
+      <c r="BR13">
         <v>-12</v>
       </c>
-      <c r="BO13">
+      <c r="BS13">
         <v>9</v>
       </c>
-      <c r="BP13">
+      <c r="BT13">
         <v>4</v>
       </c>
-      <c r="BQ13">
+      <c r="BU13">
         <v>13.37</v>
       </c>
-      <c r="BR13">
+      <c r="BV13">
         <v>34.51</v>
       </c>
-      <c r="BS13" t="s">
-        <v>299</v>
-      </c>
-      <c r="BT13" t="s">
+      <c r="BW13" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>325</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>325</v>
+      </c>
+      <c r="CB13">
+        <v>14.01</v>
+      </c>
+      <c r="CC13">
+        <v>22.06</v>
+      </c>
+      <c r="CD13">
+        <v>23.06</v>
+      </c>
+      <c r="CE13">
+        <v>22.68</v>
+      </c>
+      <c r="CH13">
+        <v>45.74</v>
+      </c>
+      <c r="CI13">
+        <v>-0.108</v>
+      </c>
+      <c r="CJ13">
+        <v>45.63200000000001</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>338</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM13" t="s">
         <v>305</v>
       </c>
-      <c r="BW13" t="s">
-        <v>305</v>
-      </c>
-      <c r="BX13">
-        <v>14.01</v>
-      </c>
-      <c r="BY13">
-        <v>22.06</v>
-      </c>
-      <c r="BZ13">
-        <v>23.06</v>
-      </c>
-      <c r="CA13">
-        <v>22.68</v>
-      </c>
-      <c r="CD13">
-        <v>45.74</v>
-      </c>
-      <c r="CE13">
-        <v>-0.108</v>
-      </c>
-      <c r="CF13">
-        <v>45.63200000000001</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>318</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>122</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>289</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>327</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>318</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>336</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>341</v>
-      </c>
-      <c r="CN13">
+      <c r="CN13" t="s">
+        <v>350</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>338</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>359</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>364</v>
+      </c>
+      <c r="CR13">
         <v>82.45</v>
       </c>
-      <c r="CO13">
+      <c r="CS13">
+        <v>81.7</v>
+      </c>
+      <c r="CT13">
         <v>82.08</v>
       </c>
+      <c r="CU13">
+        <v>81.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:93">
+    <row r="14" spans="1:99">
       <c r="A14" s="2">
         <v>45711</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>1400</v>
@@ -3983,243 +4454,261 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L14">
         <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O14">
         <v>8</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="R14">
         <v>61</v>
       </c>
       <c r="S14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="U14" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V14" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="W14">
         <v>5</v>
       </c>
       <c r="Y14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AA14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AB14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AC14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AD14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AE14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AF14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AG14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH14">
         <v>2024397</v>
       </c>
       <c r="AI14" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AJ14" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AK14">
+        <v>1400</v>
+      </c>
+      <c r="AL14">
         <v>3</v>
       </c>
-      <c r="AL14" t="s">
-        <v>265</v>
-      </c>
-      <c r="AM14">
+      <c r="AM14" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN14">
         <v>10</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>120</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>-3</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>6</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>2</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>13.51</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>35.47</v>
       </c>
-      <c r="AT14" t="s">
-        <v>271</v>
-      </c>
       <c r="AU14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AZ14">
+        <v>14.31</v>
+      </c>
+      <c r="BA14">
+        <v>22.04</v>
+      </c>
+      <c r="BB14">
+        <v>22.52</v>
+      </c>
+      <c r="BC14">
+        <v>22.83</v>
+      </c>
+      <c r="BF14">
+        <v>45.35</v>
+      </c>
+      <c r="BG14">
+        <v>-0.009000000000000001</v>
+      </c>
+      <c r="BH14">
+        <v>45.341</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>306</v>
+      </c>
+      <c r="BJ14">
+        <v>2024362</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>259</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM14">
+        <v>1400</v>
+      </c>
+      <c r="BN14">
+        <v>12</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>266</v>
+      </c>
+      <c r="BP14">
+        <v>10</v>
+      </c>
+      <c r="BQ14">
+        <v>118</v>
+      </c>
+      <c r="BR14">
+        <v>-1</v>
+      </c>
+      <c r="BS14">
+        <v>12</v>
+      </c>
+      <c r="BT14">
+        <v>-4</v>
+      </c>
+      <c r="BU14">
+        <v>13.56</v>
+      </c>
+      <c r="BV14">
+        <v>35.37</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>276</v>
+      </c>
+      <c r="BX14" t="s">
         <v>284</v>
       </c>
-      <c r="AY14">
-        <v>14.31</v>
-      </c>
-      <c r="AZ14">
-        <v>22.04</v>
-      </c>
-      <c r="BA14">
-        <v>22.52</v>
-      </c>
-      <c r="BB14">
-        <v>22.83</v>
-      </c>
-      <c r="BE14">
-        <v>45.35</v>
-      </c>
-      <c r="BF14">
-        <v>-0.009000000000000001</v>
-      </c>
-      <c r="BG14">
-        <v>45.341</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>290</v>
-      </c>
-      <c r="BI14">
-        <v>2024362</v>
-      </c>
-      <c r="BJ14">
-        <v>12</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL14">
-        <v>10</v>
-      </c>
-      <c r="BM14">
-        <v>118</v>
-      </c>
-      <c r="BN14">
-        <v>-1</v>
-      </c>
-      <c r="BO14">
-        <v>12</v>
-      </c>
-      <c r="BP14">
-        <v>-4</v>
-      </c>
-      <c r="BQ14">
-        <v>13.56</v>
-      </c>
-      <c r="BR14">
-        <v>35.37</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>268</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>311</v>
-      </c>
-      <c r="BX14">
+      <c r="CA14" t="s">
+        <v>331</v>
+      </c>
+      <c r="CB14">
         <v>14.36</v>
       </c>
-      <c r="BY14">
+      <c r="CC14">
         <v>22.05</v>
       </c>
-      <c r="BZ14">
+      <c r="CD14">
         <v>22.69</v>
       </c>
-      <c r="CA14">
+      <c r="CE14">
         <v>23.17</v>
       </c>
-      <c r="CD14">
+      <c r="CH14">
         <v>45.86</v>
       </c>
-      <c r="CE14">
+      <c r="CI14">
         <v>-0.08699999999999999</v>
       </c>
-      <c r="CF14">
+      <c r="CJ14">
         <v>45.773</v>
       </c>
-      <c r="CG14" t="s">
-        <v>319</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>123</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>290</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>328</v>
-      </c>
       <c r="CK14" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="CL14" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="CM14" t="s">
-        <v>342</v>
-      </c>
-      <c r="CN14">
+        <v>306</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>351</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>339</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>360</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>365</v>
+      </c>
+      <c r="CR14">
         <v>81.69</v>
       </c>
-      <c r="CO14">
+      <c r="CS14">
+        <v>82.18000000000001</v>
+      </c>
+      <c r="CT14">
         <v>81.94</v>
       </c>
+      <c r="CU14">
+        <v>81.69</v>
+      </c>
     </row>
-    <row r="15" spans="1:93">
+    <row r="15" spans="1:99">
       <c r="A15" s="2">
         <v>45711</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G15">
         <v>1400</v>
@@ -4228,223 +4717,241 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L15">
         <v>117</v>
       </c>
       <c r="M15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="R15">
         <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="U15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="V15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="W15">
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AA15" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AB15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AC15" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AD15" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AE15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AF15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG15" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AH15">
         <v>2024360</v>
       </c>
       <c r="AI15" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AJ15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AK15">
+        <v>1400</v>
+      </c>
+      <c r="AL15">
         <v>1</v>
       </c>
-      <c r="AL15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM15">
+      <c r="AM15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN15">
         <v>5</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>130</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>-13</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>14</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>-8</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>13.51</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>34.91</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ15">
+        <v>14.23</v>
+      </c>
+      <c r="BA15">
+        <v>21.88</v>
+      </c>
+      <c r="BB15">
+        <v>22.81</v>
+      </c>
+      <c r="BC15">
+        <v>22.86</v>
+      </c>
+      <c r="BF15">
+        <v>45.67</v>
+      </c>
+      <c r="BG15">
+        <v>-0.339</v>
+      </c>
+      <c r="BH15">
+        <v>45.331</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BJ15">
+        <v>2024152</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM15">
+        <v>1400</v>
+      </c>
+      <c r="BN15">
+        <v>6</v>
+      </c>
+      <c r="BO15" t="s">
         <v>272</v>
       </c>
-      <c r="AU15" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>276</v>
-      </c>
-      <c r="AY15">
-        <v>14.23</v>
-      </c>
-      <c r="AZ15">
-        <v>21.88</v>
-      </c>
-      <c r="BA15">
+      <c r="BP15">
+        <v>4.5</v>
+      </c>
+      <c r="BQ15">
+        <v>129</v>
+      </c>
+      <c r="BR15">
+        <v>-12</v>
+      </c>
+      <c r="BS15">
+        <v>4</v>
+      </c>
+      <c r="BT15">
+        <v>2</v>
+      </c>
+      <c r="BU15">
+        <v>13.53</v>
+      </c>
+      <c r="BV15">
+        <v>35.49</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>295</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>332</v>
+      </c>
+      <c r="CB15">
+        <v>13.77</v>
+      </c>
+      <c r="CC15">
+        <v>22.32</v>
+      </c>
+      <c r="CD15">
         <v>22.81</v>
       </c>
-      <c r="BB15">
-        <v>22.86</v>
-      </c>
-      <c r="BE15">
-        <v>45.67</v>
-      </c>
-      <c r="BF15">
-        <v>-0.339</v>
-      </c>
-      <c r="BG15">
-        <v>45.331</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>291</v>
-      </c>
-      <c r="BI15">
-        <v>2024152</v>
-      </c>
-      <c r="BJ15">
-        <v>6</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>264</v>
-      </c>
-      <c r="BL15">
-        <v>4.5</v>
-      </c>
-      <c r="BM15">
-        <v>129</v>
-      </c>
-      <c r="BN15">
-        <v>-12</v>
-      </c>
-      <c r="BO15">
-        <v>4</v>
-      </c>
-      <c r="BP15">
-        <v>2</v>
-      </c>
-      <c r="BQ15">
-        <v>13.53</v>
-      </c>
-      <c r="BR15">
-        <v>35.49</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>282</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>312</v>
-      </c>
-      <c r="BX15">
-        <v>13.77</v>
-      </c>
-      <c r="BY15">
-        <v>22.32</v>
-      </c>
-      <c r="BZ15">
-        <v>22.81</v>
-      </c>
-      <c r="CA15">
+      <c r="CE15">
         <v>23.47</v>
       </c>
-      <c r="CD15">
+      <c r="CH15">
         <v>46.28</v>
       </c>
-      <c r="CE15">
+      <c r="CI15">
         <v>-0.144</v>
       </c>
-      <c r="CF15">
+      <c r="CJ15">
         <v>46.136</v>
       </c>
-      <c r="CG15" t="s">
-        <v>308</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>124</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>291</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>329</v>
-      </c>
       <c r="CK15" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CL15" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="CM15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CN15">
+        <v>307</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>352</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>328</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>361</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>336</v>
+      </c>
+      <c r="CR15">
         <v>81.44</v>
       </c>
-      <c r="CO15">
+      <c r="CS15">
+        <v>82.23</v>
+      </c>
+      <c r="CT15">
         <v>81.84</v>
+      </c>
+      <c r="CU15">
+        <v>81.44</v>
       </c>
     </row>
   </sheetData>
